--- a/biology/Botanique/Palicourea/Palicourea.xlsx
+++ b/biology/Botanique/Palicourea/Palicourea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea est un genre de plantes de la famille des Rubiaceae, et dont l'espèce type est Palicourea guianensis Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Palicourea alba (Aubl.) Delprete &amp; J.H.Kirkbr., 2016
@@ -558,30 +572,32 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 août 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 août 2018) :
 Palicourea alpina (Sw.) DC.
 Palicourea crocea (Sw.) J.A. Schultes
 Palicourea croceoides Ham.
 Palicourea guianensis Aubl.
-Selon Catalogue of Life                                   (10 août 2018)[3] :
-Selon GRIN            (10 août 2018)[4] :
+Selon Catalogue of Life                                   (10 août 2018) :
+Selon GRIN            (10 août 2018) :
 Palicourea aeneofusca (Müll. Arg.) Standl.
 Palicourea crocea (Sw.) Schult.
 Palicourea grandiflora (Kunth) Standl.
 Palicourea juruana Krause
 Palicourea lineariflora Wernham
 Palicourea marcgravii A. St.-Hil.
-Selon ITIS      (10 août 2018)[5] :
+Selon ITIS      (10 août 2018) :
 Palicourea alpina (Sw.) DC.
 Palicourea crocea (Sw.) Schult.
 Palicourea croceoides Ham.
 Palicourea domingensis (Jacq.) DC.
 Palicourea guianensis Aubl.
-Selon World Checklist of Selected Plant Families (WCSP)  (10 août 2018)[6] :
-Selon The Plant List            (10 août 2018)[7] :
-Selon Tropicos                                           (10 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 août 2018) :
+Selon The Plant List            (10 août 2018) :
+Selon Tropicos                                           (10 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 </t>
         </is>
       </c>
